--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H2">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I2">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J2">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.70074830143039</v>
+        <v>84.78612150000001</v>
       </c>
       <c r="N2">
-        <v>84.70074830143039</v>
+        <v>169.572243</v>
       </c>
       <c r="O2">
-        <v>0.5501863356110763</v>
+        <v>0.5414245061026678</v>
       </c>
       <c r="P2">
-        <v>0.5501863356110763</v>
+        <v>0.4499324752013725</v>
       </c>
       <c r="Q2">
-        <v>1046.385726915174</v>
+        <v>1056.013178149416</v>
       </c>
       <c r="R2">
-        <v>1046.385726915174</v>
+        <v>4224.052712597665</v>
       </c>
       <c r="S2">
-        <v>0.1269973426423332</v>
+        <v>0.1157450256239758</v>
       </c>
       <c r="T2">
-        <v>0.1269973426423332</v>
+        <v>0.06962548929503649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H3">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I3">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J3">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.02502314743198</v>
+        <v>8.980450666666668</v>
       </c>
       <c r="N3">
-        <v>8.02502314743198</v>
+        <v>26.941352</v>
       </c>
       <c r="O3">
-        <v>0.05212773401914684</v>
+        <v>0.05734707497829552</v>
       </c>
       <c r="P3">
-        <v>0.05212773401914684</v>
+        <v>0.07148451289065892</v>
       </c>
       <c r="Q3">
-        <v>99.14044265291226</v>
+        <v>111.8517285841494</v>
       </c>
       <c r="R3">
-        <v>99.14044265291226</v>
+        <v>671.1103715048962</v>
       </c>
       <c r="S3">
-        <v>0.01203243932084438</v>
+        <v>0.01225958298526704</v>
       </c>
       <c r="T3">
-        <v>0.01203243932084438</v>
+        <v>0.01106198032227368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H4">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I4">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J4">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.23342219368997</v>
+        <v>8.247984000000001</v>
       </c>
       <c r="N4">
-        <v>8.23342219368997</v>
+        <v>24.743952</v>
       </c>
       <c r="O4">
-        <v>0.05348142108691021</v>
+        <v>0.05266971273762895</v>
       </c>
       <c r="P4">
-        <v>0.05348142108691021</v>
+        <v>0.06565406798106663</v>
       </c>
       <c r="Q4">
-        <v>101.7149864660442</v>
+        <v>102.728838671616</v>
       </c>
       <c r="R4">
-        <v>101.7149864660442</v>
+        <v>616.3730320296961</v>
       </c>
       <c r="S4">
-        <v>0.01234490556954592</v>
+        <v>0.01125966257845799</v>
       </c>
       <c r="T4">
-        <v>0.01234490556954592</v>
+        <v>0.010159739203856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H5">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I5">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J5">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.2894139349658</v>
+        <v>9.312984333333333</v>
       </c>
       <c r="N5">
-        <v>9.2894139349658</v>
+        <v>27.938953</v>
       </c>
       <c r="O5">
-        <v>0.06034077284258174</v>
+        <v>0.05947055784379619</v>
       </c>
       <c r="P5">
-        <v>0.06034077284258174</v>
+        <v>0.0741314855275271</v>
       </c>
       <c r="Q5">
-        <v>114.7606172068611</v>
+        <v>115.9934433832907</v>
       </c>
       <c r="R5">
-        <v>114.7606172068611</v>
+        <v>695.9606602997441</v>
       </c>
       <c r="S5">
-        <v>0.01392822269110217</v>
+        <v>0.01271353838608305</v>
       </c>
       <c r="T5">
-        <v>0.01392822269110217</v>
+        <v>0.01147159015297113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H6">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I6">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J6">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6470131783427</v>
+        <v>37.145873</v>
       </c>
       <c r="N6">
-        <v>35.6470131783427</v>
+        <v>111.437619</v>
       </c>
       <c r="O6">
-        <v>0.2315504874440514</v>
+        <v>0.2372049291437092</v>
       </c>
       <c r="P6">
-        <v>0.2315504874440514</v>
+        <v>0.2956816685335553</v>
       </c>
       <c r="Q6">
-        <v>440.3801211322358</v>
+        <v>462.6527397159521</v>
       </c>
       <c r="R6">
-        <v>440.3801211322358</v>
+        <v>2775.916438295712</v>
       </c>
       <c r="S6">
-        <v>0.05344788608803001</v>
+        <v>0.05070936075558014</v>
       </c>
       <c r="T6">
-        <v>0.05344788608803001</v>
+        <v>0.04575571220549848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H7">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I7">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J7">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.0535830304449</v>
+        <v>8.1248205</v>
       </c>
       <c r="N7">
-        <v>8.0535830304449</v>
+        <v>16.249641</v>
       </c>
       <c r="O7">
-        <v>0.05231324899623346</v>
+        <v>0.05188321919390227</v>
       </c>
       <c r="P7">
-        <v>0.05231324899623346</v>
+        <v>0.04311578986581964</v>
       </c>
       <c r="Q7">
-        <v>99.49326898026338</v>
+        <v>101.194834323192</v>
       </c>
       <c r="R7">
-        <v>99.49326898026338</v>
+        <v>404.779337292768</v>
       </c>
       <c r="S7">
-        <v>0.01207526101157973</v>
+        <v>0.01109152701321175</v>
       </c>
       <c r="T7">
-        <v>0.01207526101157973</v>
+        <v>0.00667201887217878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.7939710241268</v>
+        <v>32.753573</v>
       </c>
       <c r="H8">
-        <v>28.7939710241268</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I8">
-        <v>0.537999456522777</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J8">
-        <v>0.537999456522777</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.70074830143039</v>
+        <v>84.78612150000001</v>
       </c>
       <c r="N8">
-        <v>84.70074830143039</v>
+        <v>169.572243</v>
       </c>
       <c r="O8">
-        <v>0.5501863356110763</v>
+        <v>0.5414245061026678</v>
       </c>
       <c r="P8">
-        <v>0.5501863356110763</v>
+        <v>0.4499324752013725</v>
       </c>
       <c r="Q8">
-        <v>2438.870892313244</v>
+        <v>2777.048419937119</v>
       </c>
       <c r="R8">
-        <v>2438.870892313244</v>
+        <v>16662.29051962272</v>
       </c>
       <c r="S8">
-        <v>0.2959999495450173</v>
+        <v>0.3043802361329661</v>
       </c>
       <c r="T8">
-        <v>0.2959999495450173</v>
+        <v>0.2746462246422443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.7939710241268</v>
+        <v>32.753573</v>
       </c>
       <c r="H9">
-        <v>28.7939710241268</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I9">
-        <v>0.537999456522777</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J9">
-        <v>0.537999456522777</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.02502314743198</v>
+        <v>8.980450666666668</v>
       </c>
       <c r="N9">
-        <v>8.02502314743198</v>
+        <v>26.941352</v>
       </c>
       <c r="O9">
-        <v>0.05212773401914684</v>
+        <v>0.05734707497829552</v>
       </c>
       <c r="P9">
-        <v>0.05212773401914684</v>
+        <v>0.07148451289065892</v>
       </c>
       <c r="Q9">
-        <v>231.0722839751033</v>
+        <v>294.1418464835654</v>
       </c>
       <c r="R9">
-        <v>231.0722839751033</v>
+        <v>2647.276618352088</v>
       </c>
       <c r="S9">
-        <v>0.02804469257206487</v>
+        <v>0.03223961240520305</v>
       </c>
       <c r="T9">
-        <v>0.02804469257206487</v>
+        <v>0.04363532900580774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.7939710241268</v>
+        <v>32.753573</v>
       </c>
       <c r="H10">
-        <v>28.7939710241268</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I10">
-        <v>0.537999456522777</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J10">
-        <v>0.537999456522777</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.23342219368997</v>
+        <v>8.247984000000001</v>
       </c>
       <c r="N10">
-        <v>8.23342219368997</v>
+        <v>24.743952</v>
       </c>
       <c r="O10">
-        <v>0.05348142108691021</v>
+        <v>0.05266971273762895</v>
       </c>
       <c r="P10">
-        <v>0.05348142108691021</v>
+        <v>0.06565406798106663</v>
       </c>
       <c r="Q10">
-        <v>237.0729200745115</v>
+        <v>270.150946046832</v>
       </c>
       <c r="R10">
-        <v>237.0729200745115</v>
+        <v>2431.358514421488</v>
       </c>
       <c r="S10">
-        <v>0.02877297547882348</v>
+        <v>0.02961007383196465</v>
       </c>
       <c r="T10">
-        <v>0.02877297547882348</v>
+        <v>0.04007632899877905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.7939710241268</v>
+        <v>32.753573</v>
       </c>
       <c r="H11">
-        <v>28.7939710241268</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I11">
-        <v>0.537999456522777</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J11">
-        <v>0.537999456522777</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.2894139349658</v>
+        <v>9.312984333333333</v>
       </c>
       <c r="N11">
-        <v>9.2894139349658</v>
+        <v>27.938953</v>
       </c>
       <c r="O11">
-        <v>0.06034077284258174</v>
+        <v>0.05947055784379619</v>
       </c>
       <c r="P11">
-        <v>0.06034077284258174</v>
+        <v>0.0741314855275271</v>
       </c>
       <c r="Q11">
-        <v>267.479115674525</v>
+        <v>305.0335122096896</v>
       </c>
       <c r="R11">
-        <v>267.479115674525</v>
+        <v>2745.301609887207</v>
       </c>
       <c r="S11">
-        <v>0.03246330299547332</v>
+        <v>0.03343340065959514</v>
       </c>
       <c r="T11">
-        <v>0.03246330299547332</v>
+        <v>0.04525108488366875</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.7939710241268</v>
+        <v>32.753573</v>
       </c>
       <c r="H12">
-        <v>28.7939710241268</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I12">
-        <v>0.537999456522777</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J12">
-        <v>0.537999456522777</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.6470131783427</v>
+        <v>37.145873</v>
       </c>
       <c r="N12">
-        <v>35.6470131783427</v>
+        <v>111.437619</v>
       </c>
       <c r="O12">
-        <v>0.2315504874440514</v>
+        <v>0.2372049291437092</v>
       </c>
       <c r="P12">
-        <v>0.2315504874440514</v>
+        <v>0.2956816685335553</v>
       </c>
       <c r="Q12">
-        <v>1026.419064553866</v>
+        <v>1216.660062954229</v>
       </c>
       <c r="R12">
-        <v>1026.419064553866</v>
+        <v>10949.94056658806</v>
       </c>
       <c r="S12">
-        <v>0.1245740364024838</v>
+        <v>0.1333528341086479</v>
       </c>
       <c r="T12">
-        <v>0.1245740364024838</v>
+        <v>0.1804889809794568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.7939710241268</v>
+        <v>32.753573</v>
       </c>
       <c r="H13">
-        <v>28.7939710241268</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I13">
-        <v>0.537999456522777</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J13">
-        <v>0.537999456522777</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.0535830304449</v>
+        <v>8.1248205</v>
       </c>
       <c r="N13">
-        <v>8.0535830304449</v>
+        <v>16.249641</v>
       </c>
       <c r="O13">
-        <v>0.05231324899623346</v>
+        <v>0.05188321919390227</v>
       </c>
       <c r="P13">
-        <v>0.05231324899623346</v>
+        <v>0.04311578986581964</v>
       </c>
       <c r="Q13">
-        <v>231.8946364190298</v>
+        <v>266.1169013586465</v>
       </c>
       <c r="R13">
-        <v>231.8946364190298</v>
+        <v>1596.701408151879</v>
       </c>
       <c r="S13">
-        <v>0.02814449952891431</v>
+        <v>0.029167919685157</v>
       </c>
       <c r="T13">
-        <v>0.02814449952891431</v>
+        <v>0.02631859125931255</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.049762642593</v>
+        <v>11.69705966666667</v>
       </c>
       <c r="H14">
-        <v>11.049762642593</v>
+        <v>35.091179</v>
       </c>
       <c r="I14">
-        <v>0.2064587163555708</v>
+        <v>0.2007689570311854</v>
       </c>
       <c r="J14">
-        <v>0.2064587163555708</v>
+        <v>0.2179938868715589</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>84.70074830143039</v>
+        <v>84.78612150000001</v>
       </c>
       <c r="N14">
-        <v>84.70074830143039</v>
+        <v>169.572243</v>
       </c>
       <c r="O14">
-        <v>0.5501863356110763</v>
+        <v>0.5414245061026678</v>
       </c>
       <c r="P14">
-        <v>0.5501863356110763</v>
+        <v>0.4499324752013725</v>
       </c>
       <c r="Q14">
-        <v>935.9231643808181</v>
+        <v>991.7483220907495</v>
       </c>
       <c r="R14">
-        <v>935.9231643808181</v>
+        <v>5950.489932544497</v>
       </c>
       <c r="S14">
-        <v>0.1135907646066381</v>
+        <v>0.1087012334013573</v>
       </c>
       <c r="T14">
-        <v>0.1135907646066381</v>
+        <v>0.09808252909888847</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.049762642593</v>
+        <v>11.69705966666667</v>
       </c>
       <c r="H15">
-        <v>11.049762642593</v>
+        <v>35.091179</v>
       </c>
       <c r="I15">
-        <v>0.2064587163555708</v>
+        <v>0.2007689570311854</v>
       </c>
       <c r="J15">
-        <v>0.2064587163555708</v>
+        <v>0.2179938868715589</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.02502314743198</v>
+        <v>8.980450666666668</v>
       </c>
       <c r="N15">
-        <v>8.02502314743198</v>
+        <v>26.941352</v>
       </c>
       <c r="O15">
-        <v>0.05212773401914684</v>
+        <v>0.05734707497829552</v>
       </c>
       <c r="P15">
-        <v>0.05212773401914684</v>
+        <v>0.07148451289065892</v>
       </c>
       <c r="Q15">
-        <v>88.674600980438</v>
+        <v>105.0448672815564</v>
       </c>
       <c r="R15">
-        <v>88.674600980438</v>
+        <v>945.403805534008</v>
       </c>
       <c r="S15">
-        <v>0.01076222505211768</v>
+        <v>0.01151351243218158</v>
       </c>
       <c r="T15">
-        <v>0.01076222505211768</v>
+        <v>0.0155831868161548</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.049762642593</v>
+        <v>11.69705966666667</v>
       </c>
       <c r="H16">
-        <v>11.049762642593</v>
+        <v>35.091179</v>
       </c>
       <c r="I16">
-        <v>0.2064587163555708</v>
+        <v>0.2007689570311854</v>
       </c>
       <c r="J16">
-        <v>0.2064587163555708</v>
+        <v>0.2179938868715589</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.23342219368997</v>
+        <v>8.247984000000001</v>
       </c>
       <c r="N16">
-        <v>8.23342219368997</v>
+        <v>24.743952</v>
       </c>
       <c r="O16">
-        <v>0.05348142108691021</v>
+        <v>0.05266971273762895</v>
       </c>
       <c r="P16">
-        <v>0.05348142108691021</v>
+        <v>0.06565406798106663</v>
       </c>
       <c r="Q16">
-        <v>90.97736097653154</v>
+        <v>96.477160977712</v>
       </c>
       <c r="R16">
-        <v>90.97736097653154</v>
+        <v>868.294448799408</v>
       </c>
       <c r="S16">
-        <v>0.01104170554647524</v>
+        <v>0.0105744432934659</v>
       </c>
       <c r="T16">
-        <v>0.01104170554647524</v>
+        <v>0.01431218546812228</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.049762642593</v>
+        <v>11.69705966666667</v>
       </c>
       <c r="H17">
-        <v>11.049762642593</v>
+        <v>35.091179</v>
       </c>
       <c r="I17">
-        <v>0.2064587163555708</v>
+        <v>0.2007689570311854</v>
       </c>
       <c r="J17">
-        <v>0.2064587163555708</v>
+        <v>0.2179938868715589</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.2894139349658</v>
+        <v>9.312984333333333</v>
       </c>
       <c r="N17">
-        <v>9.2894139349658</v>
+        <v>27.938953</v>
       </c>
       <c r="O17">
-        <v>0.06034077284258174</v>
+        <v>0.05947055784379619</v>
       </c>
       <c r="P17">
-        <v>0.06034077284258174</v>
+        <v>0.0741314855275271</v>
       </c>
       <c r="Q17">
-        <v>102.6458190701679</v>
+        <v>108.9345334217319</v>
       </c>
       <c r="R17">
-        <v>102.6458190701679</v>
+        <v>980.4108007955869</v>
       </c>
       <c r="S17">
-        <v>0.01245787850498251</v>
+        <v>0.01193984187236174</v>
       </c>
       <c r="T17">
-        <v>0.01245787850498251</v>
+        <v>0.01616021066970835</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.049762642593</v>
+        <v>11.69705966666667</v>
       </c>
       <c r="H18">
-        <v>11.049762642593</v>
+        <v>35.091179</v>
       </c>
       <c r="I18">
-        <v>0.2064587163555708</v>
+        <v>0.2007689570311854</v>
       </c>
       <c r="J18">
-        <v>0.2064587163555708</v>
+        <v>0.2179938868715589</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.6470131783427</v>
+        <v>37.145873</v>
       </c>
       <c r="N18">
-        <v>35.6470131783427</v>
+        <v>111.437619</v>
       </c>
       <c r="O18">
-        <v>0.2315504874440514</v>
+        <v>0.2372049291437092</v>
       </c>
       <c r="P18">
-        <v>0.2315504874440514</v>
+        <v>0.2956816685335553</v>
       </c>
       <c r="Q18">
-        <v>393.8910345380715</v>
+        <v>434.4974928514224</v>
       </c>
       <c r="R18">
-        <v>393.8910345380715</v>
+        <v>3910.4774356628</v>
       </c>
       <c r="S18">
-        <v>0.04780561640920556</v>
+        <v>0.04762338622683873</v>
       </c>
       <c r="T18">
-        <v>0.04780561640920556</v>
+        <v>0.06445679620029762</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.049762642593</v>
+        <v>11.69705966666667</v>
       </c>
       <c r="H19">
-        <v>11.049762642593</v>
+        <v>35.091179</v>
       </c>
       <c r="I19">
-        <v>0.2064587163555708</v>
+        <v>0.2007689570311854</v>
       </c>
       <c r="J19">
-        <v>0.2064587163555708</v>
+        <v>0.2179938868715589</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.0535830304449</v>
+        <v>8.1248205</v>
       </c>
       <c r="N19">
-        <v>8.0535830304449</v>
+        <v>16.249641</v>
       </c>
       <c r="O19">
-        <v>0.05231324899623346</v>
+        <v>0.05188321919390227</v>
       </c>
       <c r="P19">
-        <v>0.05231324899623346</v>
+        <v>0.04311578986581964</v>
       </c>
       <c r="Q19">
-        <v>88.99018090883098</v>
+        <v>95.03651016945651</v>
       </c>
       <c r="R19">
-        <v>88.99018090883098</v>
+        <v>570.2190610167389</v>
       </c>
       <c r="S19">
-        <v>0.01080052623615171</v>
+        <v>0.01041653980498014</v>
       </c>
       <c r="T19">
-        <v>0.01080052623615171</v>
+        <v>0.009398978618387392</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.32279903033454</v>
+        <v>1.3556395</v>
       </c>
       <c r="H20">
-        <v>1.32279903033454</v>
+        <v>2.711279</v>
       </c>
       <c r="I20">
-        <v>0.02471576979821667</v>
+        <v>0.02326826880270489</v>
       </c>
       <c r="J20">
-        <v>0.02471576979821667</v>
+        <v>0.01684304330735749</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.70074830143039</v>
+        <v>84.78612150000001</v>
       </c>
       <c r="N20">
-        <v>84.70074830143039</v>
+        <v>169.572243</v>
       </c>
       <c r="O20">
-        <v>0.5501863356110763</v>
+        <v>0.5414245061026678</v>
       </c>
       <c r="P20">
-        <v>0.5501863356110763</v>
+        <v>0.4499324752013725</v>
       </c>
       <c r="Q20">
-        <v>112.0420677217421</v>
+        <v>114.9394153571993</v>
       </c>
       <c r="R20">
-        <v>112.0420677217421</v>
+        <v>459.7576614287971</v>
       </c>
       <c r="S20">
-        <v>0.01359827881708774</v>
+        <v>0.01259801094436861</v>
       </c>
       <c r="T20">
-        <v>0.01359827881708774</v>
+        <v>0.007578232165203264</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.32279903033454</v>
+        <v>1.3556395</v>
       </c>
       <c r="H21">
-        <v>1.32279903033454</v>
+        <v>2.711279</v>
       </c>
       <c r="I21">
-        <v>0.02471576979821667</v>
+        <v>0.02326826880270489</v>
       </c>
       <c r="J21">
-        <v>0.02471576979821667</v>
+        <v>0.01684304330735749</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.02502314743198</v>
+        <v>8.980450666666668</v>
       </c>
       <c r="N21">
-        <v>8.02502314743198</v>
+        <v>26.941352</v>
       </c>
       <c r="O21">
-        <v>0.05212773401914684</v>
+        <v>0.05734707497829552</v>
       </c>
       <c r="P21">
-        <v>0.05212773401914684</v>
+        <v>0.07148451289065892</v>
       </c>
       <c r="Q21">
-        <v>10.61549283783526</v>
+        <v>12.17425365153467</v>
       </c>
       <c r="R21">
-        <v>10.61549283783526</v>
+        <v>73.04552190920801</v>
       </c>
       <c r="S21">
-        <v>0.001288377074119901</v>
+        <v>0.001334367155643852</v>
       </c>
       <c r="T21">
-        <v>0.001288377074119901</v>
+        <v>0.001204016746422723</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.32279903033454</v>
+        <v>1.3556395</v>
       </c>
       <c r="H22">
-        <v>1.32279903033454</v>
+        <v>2.711279</v>
       </c>
       <c r="I22">
-        <v>0.02471576979821667</v>
+        <v>0.02326826880270489</v>
       </c>
       <c r="J22">
-        <v>0.02471576979821667</v>
+        <v>0.01684304330735749</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.23342219368997</v>
+        <v>8.247984000000001</v>
       </c>
       <c r="N22">
-        <v>8.23342219368997</v>
+        <v>24.743952</v>
       </c>
       <c r="O22">
-        <v>0.05348142108691021</v>
+        <v>0.05266971273762895</v>
       </c>
       <c r="P22">
-        <v>0.05348142108691021</v>
+        <v>0.06565406798106663</v>
       </c>
       <c r="Q22">
-        <v>10.89116289414797</v>
+        <v>11.181292905768</v>
       </c>
       <c r="R22">
-        <v>10.89116289414797</v>
+        <v>67.08775743460801</v>
       </c>
       <c r="S22">
-        <v>0.001321834492065563</v>
+        <v>0.0012255330337404</v>
       </c>
       <c r="T22">
-        <v>0.001321834492065563</v>
+        <v>0.001105814310309298</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.32279903033454</v>
+        <v>1.3556395</v>
       </c>
       <c r="H23">
-        <v>1.32279903033454</v>
+        <v>2.711279</v>
       </c>
       <c r="I23">
-        <v>0.02471576979821667</v>
+        <v>0.02326826880270489</v>
       </c>
       <c r="J23">
-        <v>0.02471576979821667</v>
+        <v>0.01684304330735749</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.2894139349658</v>
+        <v>9.312984333333333</v>
       </c>
       <c r="N23">
-        <v>9.2894139349658</v>
+        <v>27.938953</v>
       </c>
       <c r="O23">
-        <v>0.06034077284258174</v>
+        <v>0.05947055784379619</v>
       </c>
       <c r="P23">
-        <v>0.06034077284258174</v>
+        <v>0.0741314855275271</v>
       </c>
       <c r="Q23">
-        <v>12.28802774554893</v>
+        <v>12.62504942514783</v>
       </c>
       <c r="R23">
-        <v>12.28802774554893</v>
+        <v>75.750296550887</v>
       </c>
       <c r="S23">
-        <v>0.001491368651023734</v>
+        <v>0.00138377692575626</v>
       </c>
       <c r="T23">
-        <v>0.001491368651023734</v>
+        <v>0.001248599821178884</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.32279903033454</v>
+        <v>1.3556395</v>
       </c>
       <c r="H24">
-        <v>1.32279903033454</v>
+        <v>2.711279</v>
       </c>
       <c r="I24">
-        <v>0.02471576979821667</v>
+        <v>0.02326826880270489</v>
       </c>
       <c r="J24">
-        <v>0.02471576979821667</v>
+        <v>0.01684304330735749</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>35.6470131783427</v>
+        <v>37.145873</v>
       </c>
       <c r="N24">
-        <v>35.6470131783427</v>
+        <v>111.437619</v>
       </c>
       <c r="O24">
-        <v>0.2315504874440514</v>
+        <v>0.2372049291437092</v>
       </c>
       <c r="P24">
-        <v>0.2315504874440514</v>
+        <v>0.2956816685335553</v>
       </c>
       <c r="Q24">
-        <v>47.15383446663429</v>
+        <v>50.35641270078351</v>
       </c>
       <c r="R24">
-        <v>47.15383446663429</v>
+        <v>302.138476204701</v>
       </c>
       <c r="S24">
-        <v>0.005722948544332033</v>
+        <v>0.005519348052642393</v>
       </c>
       <c r="T24">
-        <v>0.005722948544332033</v>
+        <v>0.004980179148302392</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.32279903033454</v>
+        <v>1.3556395</v>
       </c>
       <c r="H25">
-        <v>1.32279903033454</v>
+        <v>2.711279</v>
       </c>
       <c r="I25">
-        <v>0.02471576979821667</v>
+        <v>0.02326826880270489</v>
       </c>
       <c r="J25">
-        <v>0.02471576979821667</v>
+        <v>0.01684304330735749</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.0535830304449</v>
+        <v>8.1248205</v>
       </c>
       <c r="N25">
-        <v>8.0535830304449</v>
+        <v>16.249641</v>
       </c>
       <c r="O25">
-        <v>0.05231324899623346</v>
+        <v>0.05188321919390227</v>
       </c>
       <c r="P25">
-        <v>0.05231324899623346</v>
+        <v>0.04311578986581964</v>
       </c>
       <c r="Q25">
-        <v>10.65327182339122</v>
+        <v>11.01432760020975</v>
       </c>
       <c r="R25">
-        <v>10.65327182339122</v>
+        <v>44.05731040083901</v>
       </c>
       <c r="S25">
-        <v>0.001292962219587695</v>
+        <v>0.001207232690553376</v>
       </c>
       <c r="T25">
-        <v>0.001292962219587695</v>
+        <v>0.0007262011159409251</v>
       </c>
     </row>
   </sheetData>
